--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,48 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &gt;= (CURRENT_TIMESTAMP - INTERVAL '1 year') ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SELECT MAX("order_created_at") AS "Last_Order_Time" FROM "updated_table" WHERE "client_name" = 'MC DONALDS';</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SELECT "delivery_date" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "delivery_date" = (SELECT MAX("delivery_date") FROM "updated_table" WHERE "client_name" = 'MC DONALDS');</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &lt;= '2025-09-12 12:37:40.233648' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &lt;= '2025-09-12 12:39:10.848770' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" = (SELECT MAX("order_created_at") FROM "updated_table" WHERE "client_name" = 'MC DONALDS');</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,431 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_status" IS NOT NULL;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SELECT "order_status", "delivery_date" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "delivery_date" &gt;= NOW() - INTERVAL '1 day';</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM updated_table WHERE "client_name" = 'MC DONALDS' AND "order_status" = 'pending' AND "order_created_at" &gt;= '2025-09-15 11:07:06'::timestamp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "order_status" FROM updated_table WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &gt;= '2025-09-15 11:11:34.831201'::timestamp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_created_at" AS "last_order_time" FROM updated_table WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &lt;= '2025-09-15 11:12:18.657880' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM updated_table WHERE "id" = 1823383 AND "client_name" = 'MC DONALDS';</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM updated_table WHERE "id" = 1757950 AND "client_name" = 'MC DONALDS';</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "id" = 1758007 AND "client_name" = 'MC DONALDS';</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "id" = 1758007 AND "client_name" = 'MC DONALDS';</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" = (SELECT MAX("order_created_at") FROM "updated_table" WHERE "client_name" = 'MC DONALDS') LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" = (SELECT MAX("order_created_at") FROM "updated_table" WHERE "client_name" = 'MC DONALDS') LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" = (SELECT MAX("order_created_at") FROM "updated_table" WHERE "client_name" = 'MC DONALDS') LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>select * from message_table;</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" = (SELECT MAX("order_created_at") FROM "updated_table" WHERE "client_name" = 'MC DONALDS') LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>select "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" from updated_table where "client_name" = 'MC DONALDS' limit 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &lt;= '2025-09-15 16:09:33.664998' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &lt;= '2025-09-15 16:15:35.221787' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" = (SELECT MAX("order_created_at") FROM "updated_table" WHERE "client_name" = 'MC DONALDS') LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SELECT AVG(EXTRACT(EPOCH FROM ("order_picked_at" - "order_accepted_at"))) AS "Average Time Taken (seconds)" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SELECT AVG(EXTRACT(EPOCH FROM ("order_picked_at" - "order_created_at"))) AS "average_time_taken_seconds" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SELECT AVG(EXTRACT(EPOCH FROM ("order_picked_at" - "order_accepted_at"))) AS "Average_Time_Taken_Seconds" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "delivery_date" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SELECT "id" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "id" = 1757810 AND "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SELECT "captain_name", "delivery_date" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &gt;= NOW() - INTERVAL '0 seconds' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at", "customer_number", "customer_name", "client_id", "client_name", "order_status" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &lt;= '2025-09-16 12:17:21.629789' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SELECT "delivery_date" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "delivery_date" &lt;= '2025-09-16 12:18:33.439549' ORDER BY "delivery_date" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SELECT "delivery_date" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "delivery_date" &lt;= NOW() ORDER BY "delivery_date" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SELECT "delivery_date" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "delivery_date" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_created_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" = (SELECT MAX("order_created_at") FROM "updated_table" WHERE "client_name" = 'MC DONALDS') LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>select * from message_table;</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" = (SELECT MAX("order_created_at") FROM "updated_table" WHERE "client_name" = 'MC DONALDS') LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>select "id", "order_created_at" as "Order Created At Timestamp", "order_status" as "Current Order Status" from updated_table where "client_name" = 'MC DONALDS' order by "order_created_at" desc limit 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" = (SELECT MAX("order_created_at") FROM "updated_table" WHERE "client_name" = 'MC DONALDS') LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>select "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" from "updated_table" where "client_name" = 'MC DONALDS' limit 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>select "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" from "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" = (SELECT MAX("order_created_at") FROM "updated_table" WHERE "client_name" = 'MC DONALDS') LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>select "id", "order_created_at", "order_accepted_at", "order_picked_at", "shipped_at", "reached_dest_at", "shop_to_delivery_km" from updated_table WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason", EXTRACT(EPOCH FROM ("reached_dest_at" - "order_created_at")) AS "delivery_time_seconds" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "delivery_time_seconds" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", EXTRACT(EPOCH FROM ("reached_dest_at" - "order_created_at")) AS "delivery_time_in_seconds" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "delivery_time_in_seconds" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SELECT "id" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY ("reached_dest_at" - "order_created_at") DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SELECT "id" 
+FROM "updated_table"
+WHERE "client_name" = 'MC DONALDS'
+ORDER BY "reached_dest_at" - "order_accepted_at" DESC
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SELECT "id" 
+FROM "updated_table"
+WHERE "client_name" = 'MC DONALDS'
+ORDER BY "reached_dest_at" - "start_ride_at" DESC
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SELECT "id", "delivery_date", EXTRACT(EPOCH FROM ("reached_dest_at" - "order_created_at"))::BIGINT AS "total_delivery_time_seconds" 
+FROM "updated_table"
+WHERE "client_name" = 'MC DONALDS'
+ORDER BY "total_delivery_time_seconds" DESC
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SELECT "id" FROM updated_table WHERE "client_name" = 'MC DONALDS' AND "reached_dest_at" IS NOT NULL ORDER BY "reached_dest_at" - "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,6 +949,149 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SELECT
+  "id",
+  "customer_number",
+  "customer_name",
+  "client_id",
+  "client_name",
+  "captain_name",
+  "delivery_date",
+  "order_status",
+  "shop_to_delivery_km",
+  "order_created_at",
+  "order_accepted_at",
+  "start_ride_at",
+  "reached_shop_at",
+  "order_picked_at",
+  "shipped_at",
+  "reached_dest_at",
+  "final_status_at",
+  "cancellation_reason"
+FROM "updated_table"
+WHERE "client_name" = 'MC DONALDS'
+ORDER BY "order_created_at" DESC
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" 
+FROM "updated_table"
+WHERE "client_name" = 'MC DONALDS'
+LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SELECT
+    "id",
+    "customer_number",
+    "customer_name",
+    "client_id",
+    "client_name",
+    "captain_name",
+    "delivery_date",
+    "order_status",
+    "shop_to_delivery_km",
+    "order_created_at",
+    "order_accepted_at",
+    "start_ride_at",
+    "reached_shop_at",
+    "order_picked_at",
+    "shipped_at",
+    "reached_dest_at",
+    "final_status_at",
+    "cancellation_reason"
+FROM "updated_table"
+WHERE "client_name" = 'MC DONALDS'
+LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>"SELECT
+  "id",
+  "customer_number",
+  "customer_name",
+  "client_id",
+  "client_name",
+  "captain_name",
+  "delivery_date",
+  "order_status",
+  "shop_to_delivery_km",
+  "order_created_at",
+  "order_accepted_at",
+  "start_ride_at",
+  "reached_shop_at",
+  "order_picked_at",
+  "shipped_at",
+  "reached_dest_at",
+  "final_status_at",
+  "cancellation_reason"
+FROM "updated_table"
+WHERE "client_name" = 'MC DONALDS'
+ORDER BY "order_created_at" DESC
+LIMIT 1;"</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" 
+FROM "updated_table"
+WHERE "client_name" = 'MC DONALDS'
+ORDER BY "order_created_at" DESC
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SELECT
+"id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason"
+FROM "updated_table"
+WHERE "client_name" = 'MC DONALDS'
+ORDER BY "order_created_at" DESC
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" 
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1092,6 +1092,27 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>select * from message_table;</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_created_at" &gt;= '2025-09-19 15:20:02.178437' - INTERVAL '1 day' AND "order_created_at" &lt;= '2025-09-19 15:20:02.178437' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SELECT "id", "customer_number", "customer_name", "order_status", "delivery_date", "final_status_at" FROM updated_table WHERE "client_name" = 'Dominos Pizza' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,6 +1113,145 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SELECT "delivery_date" AS "last_order_delivered_at" FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'delivered' ORDER BY "delivery_date" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SELECT "delivery_date" AS "last_order_delivered_at" FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'delivered' ORDER BY "delivery_date" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SELECT "final_status_at" 
+FROM "updated_table" 
+WHERE "client_name" = 'Dominos Pizza' 
+  AND "order_status" = 'delivered' 
+ORDER BY "final_status_at" DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SELECT "final_status_at"  
+FROM "updated_table" 
+WHERE "client_name" = 'Dominos Pizza' 
+  AND "order_status" = 'Delivered' 
+ORDER BY "final_status_at" DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SELECT "final_status_at"  
+FROM "updated_table" 
+WHERE "client_name" = 'Dominos Pizza' 
+  AND "order_status" = 'Delivered' 
+ORDER BY "final_status_at" DESC 
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SELECT * 
+FROM "updated_table" 
+WHERE "client_name" = 'MC DONALDS' 
+  AND "order_status" = 'Delivered' 
+ORDER BY "final_status_at" DESC 
+LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id") AS total_orders FROM "updated_table" WHERE "client_name" = 'MC DONALDS';</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS "total_orders" FROM "updated_table" WHERE "client_name" = 'MC DONALDS'</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS "total_orders" FROM "updated_table" WHERE "client_name" = 'MC DONALDS';</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>select * from message_table;</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>select * from message_table;</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SELECT "id", "client_name", "order_status", "delivery_date", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "customer_number", "customer_name", "client_id", "captain_name", "shop_to_delivery_km", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "final_status_at" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_status", "delivery_date", "order_created_at", "final_status_at", EXTRACT(EPOCH FROM ("final_status_at" - "order_created_at")) AS "total_duration_seconds" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "delivery_date"::date = '2025-09-22'::date ORDER BY "delivery_date" DESC LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_status", "final_status_at", "delivery_date", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_status", "final_status_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_status", "final_status_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_created_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1252,6 +1252,83 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_created_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SELECT * FROM message_table;</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_status", "order_created_at", "final_status_at", EXTRACT(EPOCH FROM ("final_status_at" - "order_created_at")) AS "total_duration_seconds" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "id" = 1823383 LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" AS "last_order_placed_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" AS "last_order_placed_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" AS "last_order_placed_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" AS "last_order_placed_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" AS "last_order_placed_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" AS "last_order_placed_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SELECT "id" AS order_id FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SELECT "captain_name" AS "last_order_delivered_by_captain" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_status" = 'Delivered' ORDER BY "delivery_date" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A112"/>
+  <dimension ref="A1:A118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1329,6 +1329,55 @@
         </is>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SELECT "order_created_at" AS "last_order_placed_at" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>```sql
+SELECT "id" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>```sql
+SELECT "final_status_at" AS last_order_timestamp FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "final_status_at" DESC LIMIT 1;
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT "order_created_at" AS last_order_placed FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT "id" AS order_id FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "final_status_at" DESC LIMIT 1;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT "order_created_at" AS last_order_placed FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "order_created_at" DESC LIMIT 1;
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A118"/>
+  <dimension ref="A1:A124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1378,6 +1378,54 @@
         </is>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT "id", "customer_number", "customer_name", "client_id", "client_name", "captain_name", "delivery_date", "order_status", "shop_to_delivery_km", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS'
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT * FROM updated_table WHERE "client_name" = 'MC DONALDS'
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT * FROM updated_table WHERE "client_name" = 'MC DONALDS';
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT * FROM updated_table WHERE "client_name" = 'MC DONALDS';
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT * FROM updated_table WHERE "client_name" = 'MC DONALDS';
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT "final_status_at" AS last_order_timestamp FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "final_status_at" DESC LIMIT 1;
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A124"/>
+  <dimension ref="A1:A131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1426,6 +1426,62 @@
         </is>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT "captain_name" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "final_status_at" DESC LIMIT 1;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT "id" AS order_id FROM "updated_table" WHERE "client_name" = 'MC DONALDS' ORDER BY "final_status_at" DESC LIMIT 1;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT "id", "client_name", "order_status", "delivery_date", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "customer_number", "customer_name", "client_id", "captain_name", "shop_to_delivery_km", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "id" = 1823361 LIMIT 1;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT "id", "client_name", "order_status", "delivery_date", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "customer_number", "customer_name", "client_id", "captain_name", "shop_to_delivery_km", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "id" = 1823361 LIMIT 1;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT "id" AS order_id, "client_name", "order_status", "delivery_date", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "customer_number", "customer_name", "client_id", "captain_name", "shop_to_delivery_km", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "id" = 1823361 LIMIT 1;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT "id", "client_name", "order_status", "delivery_date", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "customer_number", "customer_name", "client_id", "captain_name", "shop_to_delivery_km", "cancellation_reason" FROM "updated_table" WHERE "id" = 1823361 AND "client_name" = 'MC DONALDS' LIMIT 1;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT "id", "client_name", "order_status", "delivery_date", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "customer_number", "customer_name", "client_id", "captain_name", "shop_to_delivery_km", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "id" = 1823361 LIMIT 1;
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A131"/>
+  <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1482,6 +1482,43 @@
         </is>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>```sql
+SELECT "order_status" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &gt;= '2025-07-01' AND "order_created_at" &lt; '2025-08-01' LIMIT 1;
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SELECT "order_status" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "final_status_at" &gt;= '2025-07-01 00:00:00' AND "final_status_at" &lt; '2025-08-01 00:00:00' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SELECT "id" AS order_number FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND EXTRACT(MONTH FROM "order_created_at") = 7 ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SELECT "order_status" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "id" = 1823383 LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_status", "delivery_date", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "customer_number", "customer_name", "client_id", "captain_name", "shop_to_delivery_km", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &gt;= '2025-07-01' AND "order_created_at" &lt; '2025-08-01' LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A136"/>
+  <dimension ref="A1:A131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1482,43 +1482,6 @@
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>```sql
-SELECT "order_status" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &gt;= '2025-07-01' AND "order_created_at" &lt; '2025-08-01' LIMIT 1;
-```</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>SELECT "order_status" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "final_status_at" &gt;= '2025-07-01 00:00:00' AND "final_status_at" &lt; '2025-08-01 00:00:00' ORDER BY "final_status_at" DESC LIMIT 1;</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>SELECT "id" AS order_number FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND EXTRACT(MONTH FROM "order_created_at") = 7 ORDER BY "order_created_at" DESC LIMIT 1;</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>SELECT "order_status" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "id" = 1823383 LIMIT 1;</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>SELECT "id", "order_status", "delivery_date", "order_created_at", "order_accepted_at", "start_ride_at", "reached_shop_at", "order_picked_at", "shipped_at", "reached_dest_at", "final_status_at", "customer_number", "customer_name", "client_id", "captain_name", "shop_to_delivery_km", "cancellation_reason" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_created_at" &gt;= '2025-07-01' AND "order_created_at" &lt; '2025-08-01' LIMIT 1;</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A131"/>
+  <dimension ref="A1:A172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1482,6 +1482,295 @@
         </is>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>```sql
+SELECT "id" AS order_number FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' ORDER BY "final_status_at" DESC LIMIT 1;
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SELECT "id" AS order_number FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_created_at" &lt;= '2025-10-06 11:35:09.579462' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SELECT "id" AS order_number FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SELECT "id" AS order_number FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SELECT "id" AS order_number FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SELECT "id" AS order_number FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SELECT "id" AS order_number FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "final_status_at" &lt;= '2025-10-06 11:52:00.273529' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SELECT "id" AS order_number FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SELECT "captain_name" FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "id" = 1823358 AND "order_status" = 'Delivered' LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SELECT "id" AS latest_order_number FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SELECT "id" AS order_number FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SELECT "id" AS order_number FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SELECT "captain_name" FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "id" = 1823358 LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS total_orders FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND EXTRACT(MONTH FROM "order_created_at") = 7 AND EXTRACT(YEAR FROM "order_created_at") = 2025 LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS delivered_count FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'Delivered' LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS july_orders FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND EXTRACT(MONTH FROM "order_created_at") = 7 AND EXTRACT(YEAR FROM "order_created_at") = 2025 LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS delivered_orders FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'Delivered' AND DATE_TRUNC('month', "order_created_at") = '2024-07-01' LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS delivered_orders FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'Delivered' AND "final_status_at" &gt;= '2025-07-01' AND "final_status_at" &lt; '2025-08-01' LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS total_delivered FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_status" = 'Delivered' AND DATE_TRUNC('month', "final_status_at") = '2025-07-01' LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS delivered_orders FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_status" = 'Delivered' AND EXTRACT(MONTH FROM "final_status_at") = 7 AND EXTRACT(YEAR FROM "final_status_at") = 2025 LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS delivered_orders FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "order_status" = 'Delivered' AND DATE_TRUNC('month', "final_status_at") = DATE '2025-07-01' LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS delivered_orders FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'Delivered' AND DATE_TRUNC('month', "final_status_at") = '2025-07-01' LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS delivered_orders FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'Delivered' AND EXTRACT(MONTH FROM "final_status_at") = 7 AND EXTRACT(YEAR FROM "final_status_at") = 2025 LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS delivered_orders FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'Delivered' AND "final_status_at" &gt;= '2025-07-01' AND "final_status_at" &lt; '2025-08-01' LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS july_delivered_orders FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'Delivered' AND EXTRACT(MONTH FROM "final_status_at") = 7 AND EXTRACT(YEAR FROM "final_status_at") = 2025 LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_created_at" = '2025-07-21 19:12:34' LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'Canceled' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SELECT "final_status_at" AS last_order_timestamp FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_status", "delivery_date", "final_status_at" FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'Cancel Request Accepted' AND "final_status_at" &lt;= '2025-10-06 14:18:54.935126' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'Delivered' AND "delivery_date" &gt;= '2025-07-20' AND "delivery_date" &lt;= '2025-07-25' ORDER BY "delivery_date" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND EXTRACT(HOUR FROM "start_ride_at") &gt;= 19 AND "start_ride_at" &gt;= INTERVAL '0 seconds' ORDER BY "start_ride_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND EXTRACT(HOUR FROM "start_ride_at") &gt;= 19 AND "start_ride_at" IS NOT NULL ORDER BY "start_ride_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_status" = 'Delivered' AND "delivery_date" &gt;= '2025-07-20' AND "delivery_date" &lt;= '2025-07-25' ORDER BY "delivery_date" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND CAST("reached_dest_at" AS time) &gt;= '19:35:00' AND "reached_dest_at" &gt;= INTERVAL '0 seconds' ORDER BY "reached_dest_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND CAST("reached_dest_at" AS TIME) &gt; TIME '19:35:00' AND "reached_dest_at" &gt;= NOW() - INTERVAL '0 seconds' ORDER BY "reached_dest_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND CAST("reached_dest_at" AS TIME) &gt; TIME '19:35:00' AND "reached_dest_at" &gt;= NOW() - INTERVAL '0 seconds' ORDER BY "reached_dest_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_created_at", "order_status", "customer_name", "captain_name" FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_created_at" &gt;= NOW() - INTERVAL '0 seconds' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_created_at" &gt;= '2025-07-01' AND "order_created_at" &lt; '2025-08-01' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_created_at" &gt;= '2025-07-01' AND "order_created_at" &lt; '2025-08-01' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_created_at", "order_status" FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_created_at" &gt;= '2025-07-01' AND "order_created_at" &lt; '2025-08-01' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>SELECT "id", "order_created_at", "order_status", "customer_name", "captain_name" FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "order_created_at" &gt;= '2025-07-01' AND "order_created_at" &lt; '2025-08-01' ORDER BY "order_created_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A172"/>
+  <dimension ref="A1:A179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1771,6 +1771,55 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND EXTRACT(HOUR FROM "start_ride_at"::time) &gt;= 19 AND "start_ride_at" &gt;= NOW() - INTERVAL '0 seconds' ORDER BY "start_ride_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND EXTRACT(HOUR FROM "start_ride_at"::time) &gt;= 19 AND "start_ride_at" &gt;= NOW() - INTERVAL '0 seconds' ORDER BY "start_ride_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND EXTRACT(HOUR FROM "start_ride_at") &gt;= 19 AND "start_ride_at" &gt;= NOW() - INTERVAL '0 seconds' ORDER BY "start_ride_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND EXTRACT(HOUR FROM "start_ride_at") &gt;= 19 LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND EXTRACT(HOUR FROM "start_ride_at"::time) &gt;= 19 AND "start_ride_at" &gt;= NOW() - INTERVAL '0 seconds' ORDER BY "start_ride_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>SELECT "id", "start_ride_at" FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND EXTRACT(HOUR FROM "start_ride_at"::time) &gt;= 19 AND "start_ride_at" &gt;= NOW() - INTERVAL '0 seconds' LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SELECT "id", "start_ride_at", "order_status", EXTRACT(HOUR FROM "start_ride_at"::time) AS hour FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND EXTRACT(HOUR FROM "start_ride_at"::time) &gt;= 19 AND "start_ride_at" &lt;= NOW() LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A179"/>
+  <dimension ref="A1:A182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1820,6 +1820,27 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SELECT "order_status" FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND "final_status_at" &gt;= NOW() - INTERVAL '1000000 seconds' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>SELECT "order_status" FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "id" = 50505050 LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>SELECT "final_status_at" AS last_order_timestamp FROM "updated_table" WHERE "client_name" = 'MC DONALDS' AND "final_status_at" &lt;= '2025-10-08 05:48:46.466224' ORDER BY "final_status_at" DESC LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A182"/>
+  <dimension ref="A1:A188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1841,6 +1841,75 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS total_july_orders FROM "updated_table" WHERE "client_name" = 'Dominos Pizza' AND DATE_TRUNC('month', "order_created_at") = DATE '2025-07-01' LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id") AS total_canceled_orders_in_july 
+FROM "updated_table" 
+WHERE "client_name" = 'Dominos Pizza' 
+AND "order_status" = 'Canceled' 
+AND "final_status_at" &gt;= TIMESTAMP '2025-07-01 00:00:00' 
+AND "final_status_at" &lt; TIMESTAMP '2025-08-01 00:00:00';</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id") AS total_canceled_orders_in_july 
+FROM "updated_table" 
+WHERE "client_name" = 'Dominos Pizza' 
+AND "order_status" = 'Canceled' 
+AND "final_status_at" &gt;= TIMESTAMP '2025-07-01 00:00:00' 
+AND "final_status_at" &lt; TIMESTAMP '2025-08-01 00:00:00';</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id") AS total_canceled_orders_in_july 
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza' 
+AND "cancellation_reason" IS NOT NULL 
+AND "final_status_at" &gt;= TIMESTAMP '2025-07-01 00:00:00' 
+AND "final_status_at" &lt; TIMESTAMP '2025-08-01 00:00:00';</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id") AS total_canceled_orders_in_july
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+AND "order_status" = 'Canceled'
+AND "final_status_at" &gt;= TIMESTAMP '2025-07-01 00:00:00'
+AND "final_status_at" &lt; TIMESTAMP '2025-08-01 00:00:00'
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id") AS total_canceled_orders_in_july  
+FROM "updated_table" 
+WHERE "client_name" = 'Dominos Pizza' 
+AND "order_status" = 'Canceled'
+AND "final_status_at" &gt;= TIMESTAMP '2025-07-01 00:00:00' 
+AND "final_status_at" &lt; TIMESTAMP '2025-08-01 00:00:00' 
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A188"/>
+  <dimension ref="A1:A190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1910,6 +1910,30 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id") AS total_orders_in_september
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+AND "order_created_at" &gt;= '2025-09-01 00:00:00'
+AND "order_created_at" &lt; '2025-10-01 00:00:00'
+LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id") AS total_cancelled_orders
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+AND "order_status" = 'Canceled'
+AND "order_created_at" &gt;= '2025-09-01' AND "order_created_at" &lt; '2025-10-01'
+LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sql.xlsx
+++ b/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A190"/>
+  <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1934,6 +1934,135 @@
         </is>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>SELECT * 
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+AND "order_created_at" &gt;= '2025-07-21 19:12:34' AND "order_created_at" &lt; '2025-07-22 19:12:34'
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>SELECT * 
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+AND "order_created_at" = '2025-07-21 19:12:34'
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id") 
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+AND "final_status_at" &gt;= '2025-09-30 00:00:00'
+AND "final_status_at" &lt; '2025-10-01 00:00:00'
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>SELECT 
+COUNT("id") AS total_cancelled_orders_with_cancellation_reason
+FROM 
+"updated_table"
+WHERE "client_name" = 'Dominos Pizza' 
+AND "cancellation_reason" IS NOT NULL
+LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>SELECT "final_status_at"
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+ORDER BY "order_created_at" DESC
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id")
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+AND "order_status" = 'Client Return Accepted'
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>SELECT * 
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+AND "cancellation_reason" IS NOT NULL
+LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+AND "order_status" = 'Client Return Accepted'
+AND "order_created_at" &gt;= '2025-09-01' 
+AND "order_created_at" &lt; '2025-10-01'
+LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id") AS total_returned_orders_in_september
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+AND "order_status" = 'Client return decline'
+AND "final_status_at" &gt;= '2025-09-01' AND "final_status_at" &lt; '2025-10-01'
+LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id") AS total_returned_orders_in_september
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+AND "order_status" = 'Client Return Accepted'
+AND "final_status_at" &gt;= '2025-09-01' 
+AND "final_status_at" &lt; '2025-10-01'
+LIMIT 10;</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>SELECT COUNT("id") AS total_returned_orders_in_september
+FROM "updated_table"
+WHERE "client_name" = 'Dominos Pizza'
+AND "order_status" = 'Client Return Accepted'
+AND "order_created_at" &gt;= '2025-09-01' 
+AND "order_created_at" &lt; '2025-10-01';</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
